--- a/Logica matematica/Cuadro roles.xlsx
+++ b/Logica matematica/Cuadro roles.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Logica matematica/Cuadro roles.xlsx
+++ b/Logica matematica/Cuadro roles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Datos Estudiante</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Alejandro Villalobos /CEAD josé acevedo y gómez</t>
   </si>
   <si>
-    <t>Alertas</t>
-  </si>
-  <si>
     <t>Brayan Alejandro Martinez</t>
   </si>
   <si>
@@ -57,6 +54,15 @@
   </si>
   <si>
     <t>David Esteban Cadena</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>Luzmila Rojas</t>
+  </si>
+  <si>
+    <t>Tutor</t>
   </si>
 </sst>
 </file>
@@ -115,17 +121,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -142,6 +153,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D090F7-4598-4A91-9403-25D96A318367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="1743075"/>
+          <a:ext cx="809625" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342D1C5E-CF89-4F5F-AD14-4437C83FD1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="2667000"/>
+          <a:ext cx="714375" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>116075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>35135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>745435</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>866841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9461F7DF-8574-445D-9BE0-48F627F8CD77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2385510" y="797135"/>
+          <a:ext cx="629360" cy="831706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,25 +607,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -475,47 +642,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="8" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -523,5 +708,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>